--- a/REGULAR/CASUAL-REGULAR FINAL/CARAAN, FREDERIC.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/CARAAN, FREDERIC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48ED218D-B19A-4A06-AFEB-A436C2C90894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PERMANENT" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">CASUAL!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">PERMANENT!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="90">
   <si>
     <t>PERIOD</t>
   </si>
@@ -302,11 +301,17 @@
   <si>
     <t>RESCUE</t>
   </si>
+  <si>
+    <t>SL(28-0-0)</t>
+  </si>
+  <si>
+    <t>10/26,27,31  11/3,6-10,13-17,20-24,28-30  12/1,4-8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -685,9 +690,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -697,17 +699,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -723,247 +728,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1205,6 +969,247 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1219,7 +1224,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1236,25 +1241,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{47917428-BD98-4DC5-A90D-99819E3EE982}" name="Table13" displayName="Table13" ref="A8:K302" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K302" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{C5AAC650-9E29-4E8D-8109-EF20949C150A}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{6B40717F-C5B0-4DFA-985A-25665DA6257D}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{B8FBFE20-8E65-4E89-A73B-8D8BF1CC0B60}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{15267874-C847-4C70-9530-0FA81F76B71E}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{6AA3BE76-D6E2-40F8-95D6-45B6D332B3F6}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3071EA90-3C4F-410B-B2B2-A258B388D01F}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{E6F97237-DF61-442B-9126-8620465C8938}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{66422BF4-23B6-41F4-98E1-78895BCD4499}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{2182CA5E-328F-42FB-A815-CF4CEB1F37E0}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{6F034F3B-001C-4021-BB3E-985206CCEF8D}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{0A31DD0D-65D0-449A-85CA-F3D9B23D929A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1266,25 +1271,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K64" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K64" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1591,98 +1596,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF89B8D4-A75D-4097-AA1C-CC0884A9D2A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1968" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1965" topLeftCell="A238" activePane="bottomLeft"/>
       <selection activeCell="L4" sqref="L4"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="F262" sqref="F262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="56">
         <v>38384</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1690,7 +1695,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1703,24 +1708,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1755,7 +1760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1764,7 +1769,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>171.75</v>
+        <v>176.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1774,12 +1779,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>256.75</v>
+        <v>261.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>56</v>
       </c>
@@ -1801,7 +1806,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>38412</v>
       </c>
@@ -1821,7 +1826,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>38443</v>
       </c>
@@ -1841,7 +1846,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>38473</v>
       </c>
@@ -1861,7 +1866,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>38504</v>
       </c>
@@ -1881,7 +1886,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>38534</v>
       </c>
@@ -1901,7 +1906,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>38565</v>
       </c>
@@ -1921,7 +1926,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>38596</v>
       </c>
@@ -1941,7 +1946,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>38626</v>
       </c>
@@ -1961,7 +1966,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>38657</v>
       </c>
@@ -1981,7 +1986,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>38687</v>
       </c>
@@ -2005,7 +2010,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>57</v>
       </c>
@@ -2027,7 +2032,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>38718</v>
       </c>
@@ -2047,7 +2052,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>38749</v>
       </c>
@@ -2067,7 +2072,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>38777</v>
       </c>
@@ -2087,7 +2092,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>38808</v>
       </c>
@@ -2107,7 +2112,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>38838</v>
       </c>
@@ -2127,7 +2132,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>38869</v>
       </c>
@@ -2153,7 +2158,7 @@
         <v>38894</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>38899</v>
       </c>
@@ -2179,7 +2184,7 @@
         <v>38906</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>38930</v>
       </c>
@@ -2199,7 +2204,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>38961</v>
       </c>
@@ -2219,7 +2224,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>38991</v>
       </c>
@@ -2239,7 +2244,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>39022</v>
       </c>
@@ -2259,7 +2264,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>39052</v>
       </c>
@@ -2283,7 +2288,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>72</v>
@@ -2301,7 +2306,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>58</v>
       </c>
@@ -2323,7 +2328,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>39083</v>
       </c>
@@ -2343,7 +2348,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>39114</v>
       </c>
@@ -2363,7 +2368,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>39142</v>
       </c>
@@ -2389,7 +2394,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>39173</v>
       </c>
@@ -2409,7 +2414,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>39203</v>
       </c>
@@ -2429,7 +2434,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>39234</v>
       </c>
@@ -2455,7 +2460,7 @@
         <v>39245</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>71</v>
@@ -2477,7 +2482,7 @@
         <v>39253</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>39264</v>
       </c>
@@ -2497,7 +2502,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>39295</v>
       </c>
@@ -2517,7 +2522,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>39326</v>
       </c>
@@ -2543,7 +2548,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>39356</v>
       </c>
@@ -2563,7 +2568,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>39387</v>
       </c>
@@ -2583,7 +2588,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>39417</v>
       </c>
@@ -2607,7 +2612,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>59</v>
       </c>
@@ -2629,7 +2634,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>39448</v>
       </c>
@@ -2655,7 +2660,7 @@
         <v>39456</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>39479</v>
       </c>
@@ -2675,7 +2680,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>39508</v>
       </c>
@@ -2695,7 +2700,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>39539</v>
       </c>
@@ -2721,7 +2726,7 @@
         <v>39556</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>39569</v>
       </c>
@@ -2741,7 +2746,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>39600</v>
       </c>
@@ -2761,7 +2766,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>39630</v>
       </c>
@@ -2781,7 +2786,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>39661</v>
       </c>
@@ -2801,7 +2806,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>39692</v>
       </c>
@@ -2821,7 +2826,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>39722</v>
       </c>
@@ -2841,7 +2846,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>39753</v>
       </c>
@@ -2861,7 +2866,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>39783</v>
       </c>
@@ -2885,7 +2890,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>60</v>
       </c>
@@ -2907,7 +2912,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>39814</v>
       </c>
@@ -2927,7 +2932,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>39845</v>
       </c>
@@ -2947,7 +2952,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>39873</v>
       </c>
@@ -2967,7 +2972,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>39904</v>
       </c>
@@ -2987,7 +2992,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>39934</v>
       </c>
@@ -3007,7 +3012,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>39965</v>
       </c>
@@ -3027,7 +3032,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>39995</v>
       </c>
@@ -3053,7 +3058,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="20" t="s">
         <v>55</v>
@@ -3075,7 +3080,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>48</v>
@@ -3095,7 +3100,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>40026</v>
       </c>
@@ -3115,7 +3120,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>40057</v>
       </c>
@@ -3135,7 +3140,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>40087</v>
       </c>
@@ -3155,7 +3160,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>40118</v>
       </c>
@@ -3175,7 +3180,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>40148</v>
       </c>
@@ -3195,7 +3200,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
         <v>61</v>
       </c>
@@ -3217,7 +3222,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>40179</v>
       </c>
@@ -3237,7 +3242,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>40210</v>
       </c>
@@ -3257,7 +3262,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>40238</v>
       </c>
@@ -3277,7 +3282,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>40269</v>
       </c>
@@ -3297,7 +3302,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>40299</v>
       </c>
@@ -3317,7 +3322,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>40330</v>
       </c>
@@ -3337,7 +3342,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>40360</v>
       </c>
@@ -3357,7 +3362,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>40391</v>
       </c>
@@ -3377,7 +3382,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>40422</v>
       </c>
@@ -3397,7 +3402,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>40452</v>
       </c>
@@ -3417,7 +3422,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>40483</v>
       </c>
@@ -3437,7 +3442,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>40513</v>
       </c>
@@ -3461,7 +3466,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>62</v>
       </c>
@@ -3483,7 +3488,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>40544</v>
       </c>
@@ -3503,7 +3508,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>40575</v>
       </c>
@@ -3523,7 +3528,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>40603</v>
       </c>
@@ -3543,7 +3548,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>40634</v>
       </c>
@@ -3563,7 +3568,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>40664</v>
       </c>
@@ -3583,7 +3588,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>40695</v>
       </c>
@@ -3603,7 +3608,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>40725</v>
       </c>
@@ -3623,7 +3628,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>40756</v>
       </c>
@@ -3643,7 +3648,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>40787</v>
       </c>
@@ -3663,7 +3668,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>40817</v>
       </c>
@@ -3683,7 +3688,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>40848</v>
       </c>
@@ -3703,7 +3708,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>40878</v>
       </c>
@@ -3727,7 +3732,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="48" t="s">
         <v>63</v>
       </c>
@@ -3749,7 +3754,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>40909</v>
       </c>
@@ -3769,7 +3774,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>40940</v>
       </c>
@@ -3789,7 +3794,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>40969</v>
       </c>
@@ -3809,7 +3814,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>41000</v>
       </c>
@@ -3829,7 +3834,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>41030</v>
       </c>
@@ -3849,7 +3854,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>41061</v>
       </c>
@@ -3869,7 +3874,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>41091</v>
       </c>
@@ -3889,7 +3894,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>41122</v>
       </c>
@@ -3909,7 +3914,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>41153</v>
       </c>
@@ -3929,7 +3934,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>41183</v>
       </c>
@@ -3949,7 +3954,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>41214</v>
       </c>
@@ -3969,7 +3974,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>41244</v>
       </c>
@@ -3993,7 +3998,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>64</v>
       </c>
@@ -4015,7 +4020,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>41275</v>
       </c>
@@ -4035,7 +4040,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>41306</v>
       </c>
@@ -4055,7 +4060,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>41334</v>
       </c>
@@ -4075,7 +4080,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>41365</v>
       </c>
@@ -4095,7 +4100,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>41395</v>
       </c>
@@ -4115,7 +4120,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>41426</v>
       </c>
@@ -4135,7 +4140,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>41456</v>
       </c>
@@ -4155,7 +4160,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>41487</v>
       </c>
@@ -4175,7 +4180,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>41518</v>
       </c>
@@ -4195,7 +4200,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>41548</v>
       </c>
@@ -4215,7 +4220,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>41579</v>
       </c>
@@ -4235,7 +4240,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <v>41609</v>
       </c>
@@ -4259,7 +4264,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="48" t="s">
         <v>65</v>
       </c>
@@ -4281,7 +4286,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>41640</v>
       </c>
@@ -4301,7 +4306,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>41671</v>
       </c>
@@ -4321,7 +4326,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>41699</v>
       </c>
@@ -4341,7 +4346,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>41730</v>
       </c>
@@ -4361,7 +4366,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>41760</v>
       </c>
@@ -4381,7 +4386,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>41791</v>
       </c>
@@ -4401,7 +4406,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>41821</v>
       </c>
@@ -4421,7 +4426,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>41852</v>
       </c>
@@ -4441,7 +4446,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>41883</v>
       </c>
@@ -4461,7 +4466,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>41913</v>
       </c>
@@ -4481,7 +4486,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <v>41944</v>
       </c>
@@ -4501,7 +4506,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>41974</v>
       </c>
@@ -4525,7 +4530,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="48" t="s">
         <v>66</v>
       </c>
@@ -4547,7 +4552,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>42005</v>
       </c>
@@ -4567,7 +4572,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>42036</v>
       </c>
@@ -4587,7 +4592,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>42064</v>
       </c>
@@ -4607,7 +4612,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>42095</v>
       </c>
@@ -4627,7 +4632,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>42125</v>
       </c>
@@ -4647,7 +4652,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>42156</v>
       </c>
@@ -4667,7 +4672,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>42186</v>
       </c>
@@ -4693,7 +4698,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>42217</v>
       </c>
@@ -4713,7 +4718,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>42248</v>
       </c>
@@ -4733,7 +4738,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>42278</v>
       </c>
@@ -4753,7 +4758,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>42309</v>
       </c>
@@ -4773,7 +4778,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>42339</v>
       </c>
@@ -4793,7 +4798,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="48" t="s">
         <v>67</v>
       </c>
@@ -4815,7 +4820,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <v>42370</v>
       </c>
@@ -4835,7 +4840,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>42401</v>
       </c>
@@ -4855,7 +4860,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>42430</v>
       </c>
@@ -4875,7 +4880,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>42461</v>
       </c>
@@ -4895,7 +4900,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>42491</v>
       </c>
@@ -4915,7 +4920,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <v>42522</v>
       </c>
@@ -4935,7 +4940,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>42552</v>
       </c>
@@ -4955,7 +4960,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>42583</v>
       </c>
@@ -4975,7 +4980,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>42614</v>
       </c>
@@ -4995,7 +5000,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>42644</v>
       </c>
@@ -5015,7 +5020,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>42675</v>
       </c>
@@ -5035,7 +5040,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>42705</v>
       </c>
@@ -5059,7 +5064,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="48" t="s">
         <v>52</v>
       </c>
@@ -5081,7 +5086,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>42736</v>
       </c>
@@ -5101,7 +5106,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>42767</v>
       </c>
@@ -5121,7 +5126,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>42795</v>
       </c>
@@ -5141,7 +5146,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>42826</v>
       </c>
@@ -5161,7 +5166,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>42856</v>
       </c>
@@ -5181,7 +5186,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <v>42887</v>
       </c>
@@ -5201,7 +5206,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>42917</v>
       </c>
@@ -5221,7 +5226,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <v>42948</v>
       </c>
@@ -5241,7 +5246,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>42979</v>
       </c>
@@ -5261,7 +5266,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>43009</v>
       </c>
@@ -5285,7 +5290,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>43040</v>
       </c>
@@ -5305,7 +5310,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <v>43070</v>
       </c>
@@ -5329,7 +5334,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="48" t="s">
         <v>43</v>
       </c>
@@ -5351,7 +5356,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>43101</v>
       </c>
@@ -5371,7 +5376,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>43132</v>
       </c>
@@ -5391,7 +5396,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>43160</v>
       </c>
@@ -5411,7 +5416,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>43191</v>
       </c>
@@ -5431,7 +5436,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>43221</v>
       </c>
@@ -5451,7 +5456,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>43252</v>
       </c>
@@ -5471,7 +5476,7 @@
       <c r="J187" s="12"/>
       <c r="K187" s="15"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>43282</v>
       </c>
@@ -5491,7 +5496,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>43313</v>
       </c>
@@ -5511,7 +5516,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>43344</v>
       </c>
@@ -5531,7 +5536,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>43374</v>
       </c>
@@ -5551,7 +5556,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>43405</v>
       </c>
@@ -5571,7 +5576,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>43435</v>
       </c>
@@ -5595,7 +5600,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="48" t="s">
         <v>44</v>
       </c>
@@ -5613,7 +5618,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>43466</v>
       </c>
@@ -5633,7 +5638,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>43497</v>
       </c>
@@ -5653,7 +5658,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>43525</v>
       </c>
@@ -5673,7 +5678,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>43556</v>
       </c>
@@ -5693,7 +5698,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>43586</v>
       </c>
@@ -5713,7 +5718,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>43617</v>
       </c>
@@ -5733,7 +5738,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>43647</v>
       </c>
@@ -5753,7 +5758,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>43678</v>
       </c>
@@ -5773,7 +5778,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>43709</v>
       </c>
@@ -5793,7 +5798,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>43739</v>
       </c>
@@ -5813,7 +5818,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>43770</v>
       </c>
@@ -5833,7 +5838,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>43800</v>
       </c>
@@ -5857,7 +5862,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="48" t="s">
         <v>45</v>
       </c>
@@ -5875,7 +5880,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>43831</v>
       </c>
@@ -5895,7 +5900,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>43862</v>
       </c>
@@ -5915,7 +5920,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>43891</v>
       </c>
@@ -5935,7 +5940,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>43922</v>
       </c>
@@ -5955,7 +5960,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>43952</v>
       </c>
@@ -5975,7 +5980,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>43983</v>
       </c>
@@ -5995,7 +6000,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>44013</v>
       </c>
@@ -6015,7 +6020,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>44044</v>
       </c>
@@ -6035,7 +6040,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>44075</v>
       </c>
@@ -6055,7 +6060,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>44105</v>
       </c>
@@ -6075,7 +6080,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>44136</v>
       </c>
@@ -6095,7 +6100,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>44166</v>
       </c>
@@ -6119,7 +6124,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="48" t="s">
         <v>46</v>
       </c>
@@ -6137,7 +6142,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>44197</v>
       </c>
@@ -6157,7 +6162,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>44228</v>
       </c>
@@ -6177,7 +6182,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>44256</v>
       </c>
@@ -6197,7 +6202,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>44287</v>
       </c>
@@ -6217,7 +6222,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>44317</v>
       </c>
@@ -6237,7 +6242,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>44348</v>
       </c>
@@ -6257,7 +6262,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>44378</v>
       </c>
@@ -6277,7 +6282,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>44409</v>
       </c>
@@ -6297,7 +6302,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>44440</v>
       </c>
@@ -6317,7 +6322,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>44470</v>
       </c>
@@ -6337,7 +6342,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>44501</v>
       </c>
@@ -6357,7 +6362,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>44531</v>
       </c>
@@ -6381,7 +6386,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="48" t="s">
         <v>47</v>
       </c>
@@ -6399,7 +6404,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>44562</v>
       </c>
@@ -6419,7 +6424,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>44593</v>
       </c>
@@ -6439,7 +6444,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>44621</v>
       </c>
@@ -6459,7 +6464,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>44652</v>
       </c>
@@ -6479,7 +6484,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>44682</v>
       </c>
@@ -6499,7 +6504,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>44713</v>
       </c>
@@ -6519,7 +6524,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>44743</v>
       </c>
@@ -6539,7 +6544,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>44774</v>
       </c>
@@ -6559,7 +6564,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>44805</v>
       </c>
@@ -6579,7 +6584,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>44835</v>
       </c>
@@ -6599,7 +6604,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>44866</v>
       </c>
@@ -6619,7 +6624,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>44896</v>
       </c>
@@ -6643,7 +6648,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="48" t="s">
         <v>85</v>
       </c>
@@ -6661,7 +6666,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>44927</v>
       </c>
@@ -6681,7 +6686,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>44958</v>
       </c>
@@ -6701,7 +6706,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>44986</v>
       </c>
@@ -6721,7 +6726,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>45017</v>
       </c>
@@ -6741,7 +6746,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>45047</v>
       </c>
@@ -6761,79 +6766,87 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>45078</v>
       </c>
       <c r="B252" s="20"/>
-      <c r="C252" s="13"/>
+      <c r="C252" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D252" s="39"/>
       <c r="E252" s="9"/>
       <c r="F252" s="20"/>
-      <c r="G252" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G252" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H252" s="39"/>
       <c r="I252" s="9"/>
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>45108</v>
       </c>
       <c r="B253" s="20"/>
-      <c r="C253" s="13"/>
+      <c r="C253" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D253" s="39"/>
       <c r="E253" s="9"/>
       <c r="F253" s="20"/>
-      <c r="G253" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G253" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H253" s="39"/>
       <c r="I253" s="9"/>
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>45139</v>
       </c>
       <c r="B254" s="20"/>
-      <c r="C254" s="13"/>
+      <c r="C254" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D254" s="39"/>
       <c r="E254" s="9"/>
       <c r="F254" s="20"/>
-      <c r="G254" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G254" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H254" s="39"/>
       <c r="I254" s="9"/>
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>45170</v>
       </c>
       <c r="B255" s="20"/>
-      <c r="C255" s="13"/>
+      <c r="C255" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D255" s="39"/>
       <c r="E255" s="9"/>
       <c r="F255" s="20"/>
-      <c r="G255" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G255" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H255" s="39"/>
       <c r="I255" s="9"/>
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>45200</v>
       </c>
@@ -6851,7 +6864,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>45231</v>
       </c>
@@ -6869,7 +6882,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>45261</v>
       </c>
@@ -6887,7 +6900,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>45292</v>
       </c>
@@ -6905,7 +6918,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>45323</v>
       </c>
@@ -6923,7 +6936,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>45352</v>
       </c>
@@ -6941,7 +6954,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>45383</v>
       </c>
@@ -6959,7 +6972,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>45413</v>
       </c>
@@ -6977,7 +6990,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>45444</v>
       </c>
@@ -6995,7 +7008,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>45474</v>
       </c>
@@ -7013,7 +7026,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>45505</v>
       </c>
@@ -7031,7 +7044,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>45536</v>
       </c>
@@ -7049,7 +7062,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>45566</v>
       </c>
@@ -7067,7 +7080,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>45597</v>
       </c>
@@ -7085,7 +7098,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>45627</v>
       </c>
@@ -7103,7 +7116,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>45658</v>
       </c>
@@ -7121,7 +7134,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>45689</v>
       </c>
@@ -7139,7 +7152,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>45717</v>
       </c>
@@ -7157,7 +7170,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>45748</v>
       </c>
@@ -7175,7 +7188,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>45778</v>
       </c>
@@ -7193,7 +7206,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>45809</v>
       </c>
@@ -7211,7 +7224,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>45839</v>
       </c>
@@ -7229,7 +7242,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>45870</v>
       </c>
@@ -7247,7 +7260,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>45901</v>
       </c>
@@ -7265,7 +7278,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>45931</v>
       </c>
@@ -7283,7 +7296,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20"/>
       <c r="C281" s="13"/>
@@ -7299,7 +7312,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20"/>
       <c r="C282" s="13"/>
@@ -7315,7 +7328,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20"/>
       <c r="C283" s="13"/>
@@ -7331,7 +7344,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20"/>
       <c r="C284" s="13"/>
@@ -7347,7 +7360,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20"/>
       <c r="C285" s="13"/>
@@ -7363,7 +7376,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20"/>
       <c r="C286" s="13"/>
@@ -7379,7 +7392,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20"/>
       <c r="C287" s="13"/>
@@ -7395,7 +7408,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20"/>
       <c r="C288" s="13"/>
@@ -7411,7 +7424,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20"/>
       <c r="C289" s="13"/>
@@ -7427,7 +7440,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20"/>
       <c r="C290" s="13"/>
@@ -7443,7 +7456,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20"/>
       <c r="C291" s="13"/>
@@ -7459,7 +7472,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20"/>
       <c r="C292" s="13"/>
@@ -7475,7 +7488,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20"/>
       <c r="C293" s="13"/>
@@ -7491,7 +7504,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20"/>
       <c r="C294" s="13"/>
@@ -7507,7 +7520,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20"/>
       <c r="C295" s="13"/>
@@ -7523,7 +7536,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20"/>
       <c r="C296" s="13"/>
@@ -7539,7 +7552,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20"/>
       <c r="C297" s="13"/>
@@ -7555,7 +7568,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20"/>
       <c r="C298" s="13"/>
@@ -7571,7 +7584,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20"/>
       <c r="C299" s="13"/>
@@ -7587,7 +7600,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20"/>
       <c r="C300" s="13"/>
@@ -7603,7 +7616,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20"/>
       <c r="C301" s="13"/>
@@ -7619,7 +7632,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="41"/>
       <c r="B302" s="15"/>
       <c r="C302" s="42"/>
@@ -7637,23 +7650,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{231EC4A0-518A-4568-A6BD-07F2F190262E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{8F692AB1-06D4-4932-B14B-90FC7358FF3B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7676,98 +7689,98 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1968" topLeftCell="A33" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1965" topLeftCell="A33" activePane="bottomLeft"/>
       <selection activeCell="J2" sqref="J2:K2"/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="56">
         <v>37500</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -7775,7 +7788,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -7788,24 +7801,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -7840,7 +7853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -7859,12 +7872,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>32.25</v>
+        <v>4.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>51</v>
       </c>
@@ -7879,7 +7892,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>37530</v>
       </c>
@@ -7899,7 +7912,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <f>EDATE(A11,1)</f>
         <v>37561</v>
@@ -7920,7 +7933,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f t="shared" ref="A13:A17" si="0">EDATE(A12,1)</f>
         <v>37591</v>
@@ -7941,7 +7954,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>53</v>
       </c>
@@ -7963,7 +7976,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f>EDATE(A13,1)</f>
         <v>37622</v>
@@ -7988,7 +8001,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>37653</v>
@@ -8015,7 +8028,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>37681</v>
@@ -8036,7 +8049,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" ref="A18:A42" si="1">EDATE(A17,1)</f>
         <v>37712</v>
@@ -8057,7 +8070,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="1"/>
         <v>37742</v>
@@ -8078,7 +8091,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f t="shared" si="1"/>
         <v>37773</v>
@@ -8099,7 +8112,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" si="1"/>
         <v>37803</v>
@@ -8120,7 +8133,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="1"/>
         <v>37834</v>
@@ -8141,7 +8154,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f t="shared" si="1"/>
         <v>37865</v>
@@ -8162,7 +8175,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f t="shared" si="1"/>
         <v>37895</v>
@@ -8183,7 +8196,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f t="shared" si="1"/>
         <v>37926</v>
@@ -8204,7 +8217,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" si="1"/>
         <v>37956</v>
@@ -8229,7 +8242,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>54</v>
       </c>
@@ -8251,7 +8264,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f>EDATE(A26,1)</f>
         <v>37987</v>
@@ -8272,7 +8285,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="1"/>
         <v>38018</v>
@@ -8293,7 +8306,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f t="shared" si="1"/>
         <v>38047</v>
@@ -8314,7 +8327,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" si="1"/>
         <v>38078</v>
@@ -8341,7 +8354,7 @@
         <v>38003</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -8362,7 +8375,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -8383,7 +8396,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -8404,7 +8417,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f t="shared" si="1"/>
         <v>38200</v>
@@ -8425,7 +8438,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <f t="shared" si="1"/>
         <v>38231</v>
@@ -8446,7 +8459,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f t="shared" si="1"/>
         <v>38261</v>
@@ -8473,7 +8486,7 @@
         <v>38269</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f t="shared" si="1"/>
         <v>38292</v>
@@ -8494,7 +8507,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -8519,7 +8532,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>56</v>
       </c>
@@ -8541,7 +8554,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f>EDATE(A39,1)</f>
         <v>38353</v>
@@ -8562,7 +8575,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="1"/>
         <v>38384</v>
@@ -8583,8 +8596,10 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="s">
+        <v>85</v>
+      </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
       <c r="D43" s="39"/>
@@ -8599,9 +8614,13 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
-      <c r="B44" s="20"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C44" s="13"/>
       <c r="D44" s="39"/>
       <c r="E44" s="9"/>
@@ -8610,12 +8629,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H44" s="39"/>
+      <c r="H44" s="39">
+        <v>28</v>
+      </c>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="20"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -8631,7 +8654,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -8647,7 +8670,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -8663,7 +8686,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -8679,7 +8702,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -8695,7 +8718,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -8711,7 +8734,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -8727,7 +8750,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -8743,7 +8766,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -8759,7 +8782,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -8775,7 +8798,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -8791,7 +8814,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -8807,7 +8830,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -8823,7 +8846,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -8839,7 +8862,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -8855,7 +8878,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -8871,7 +8894,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -8887,7 +8910,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -8903,7 +8926,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -8919,7 +8942,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="15"/>
       <c r="C64" s="42"/>
@@ -8950,10 +8973,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8976,28 +8999,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -9010,7 +9033,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9039,7 +9062,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -9059,17 +9082,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -9090,7 +9113,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -9117,7 +9140,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -9143,7 +9166,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9169,7 +9192,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9195,7 +9218,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9221,7 +9244,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9247,7 +9270,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9273,7 +9296,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9299,7 +9322,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9319,7 +9342,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9339,7 +9362,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9359,7 +9382,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9380,7 +9403,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9401,7 +9424,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9422,7 +9445,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9443,7 +9466,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9464,7 +9487,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9485,7 +9508,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9506,7 +9529,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9527,7 +9550,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9548,7 +9571,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9569,7 +9592,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9590,7 +9613,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9611,7 +9634,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9632,7 +9655,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9653,7 +9676,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9674,7 +9697,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9695,7 +9718,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9716,7 +9739,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9737,7 +9760,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9758,7 +9781,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9779,7 +9802,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9788,7 +9811,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9797,7 +9820,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9806,7 +9829,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9815,7 +9838,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9824,7 +9847,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9833,7 +9856,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9842,7 +9865,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9851,7 +9874,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9860,7 +9883,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9869,7 +9892,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9878,7 +9901,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9887,7 +9910,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9896,7 +9919,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9905,7 +9928,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9914,7 +9937,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9923,7 +9946,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9932,7 +9955,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9941,7 +9964,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9950,7 +9973,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9959,7 +9982,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9968,7 +9991,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9977,7 +10000,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9986,7 +10009,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9995,7 +10018,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10004,7 +10027,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10013,7 +10036,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10022,7 +10045,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10031,7 +10054,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10040,7 +10063,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
